--- a/app/config/tables/femaleClients/forms/client6Week/client6Week.xlsx
+++ b/app/config/tables/femaleClients/forms/client6Week/client6Week.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="16360" yWindow="5880" windowWidth="29220" windowHeight="18340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="379">
   <si>
     <t>type</t>
   </si>
@@ -688,9 +688,6 @@
   </si>
   <si>
     <t>Are you still breastfeeding?</t>
-  </si>
-  <si>
-    <t>For how long did you breastfeed this child?</t>
   </si>
   <si>
     <t>Other government facility</t>
@@ -904,9 +901,6 @@
     <t>prescr_meds</t>
   </si>
   <si>
-    <t>group_meds</t>
-  </si>
-  <si>
     <t>art</t>
   </si>
   <si>
@@ -949,12 +943,6 @@
     <t>select_multiple</t>
   </si>
   <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
@@ -1133,6 +1121,48 @@
   </si>
   <si>
     <t>interviewer_init</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>selected(data('delivery_location'), 'a6')</t>
+  </si>
+  <si>
+    <t>selected(data('delivery_assisted'), 'a8')</t>
+  </si>
+  <si>
+    <t>selected(data('complications'), 'a5')</t>
+  </si>
+  <si>
+    <t>For how long has this child been breastfed?</t>
+  </si>
+  <si>
+    <t>selected(data('bf_after_deliv'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('hiv_tested'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('test_location'), 'a5')</t>
+  </si>
+  <si>
+    <t>selected(data('art'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('child_curr_meds'), 'a1')</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>selected(data('baby_alive'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('baby_alive_now'),'a1')</t>
   </si>
 </sst>
 </file>
@@ -1249,9 +1279,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1338,13 +1404,49 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1743,735 +1845,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="O91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" sqref="A1:S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="63" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="19"/>
-    <col min="10" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="28" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="63" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="10.83203125" style="19"/>
+    <col min="11" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="28" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:19" ht="30">
       <c r="A1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1">
-      <c r="B3" s="4" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="45">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="45">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I5" s="26" t="b">
+      <c r="G5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="60">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:19" ht="60">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="15"/>
+      <c r="C8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="F8" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="7" t="s">
+      <c r="E11" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45">
+      <c r="A12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" ht="30">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="15"/>
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="15"/>
+      <c r="C32" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="A33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="15"/>
+      <c r="C34" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="15"/>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="15"/>
+      <c r="C37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="60">
+      <c r="B38" s="15"/>
+      <c r="C38" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30">
+      <c r="A39" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="15"/>
+      <c r="C40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45">
+      <c r="A41" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="15"/>
+      <c r="C42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="15"/>
+      <c r="C44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="30">
+      <c r="B46" s="15"/>
+      <c r="C46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="15"/>
+      <c r="C47" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="15"/>
+      <c r="C48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30">
+      <c r="B49" s="15"/>
+      <c r="C49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="15"/>
+      <c r="C50" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="15"/>
+      <c r="C51" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="15"/>
+      <c r="C53" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="15"/>
+      <c r="C54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="B56" s="15"/>
+      <c r="C56" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="B57" s="15"/>
+      <c r="C57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30">
+      <c r="B58" s="15"/>
+      <c r="C58" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="15"/>
+      <c r="C59" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="A60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" ht="30">
+      <c r="B61" s="15"/>
+      <c r="C61" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" ht="30">
+      <c r="B63" s="15"/>
+      <c r="C63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60">
+      <c r="B64" s="15"/>
+      <c r="C64" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" ht="30">
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" s="7" t="s">
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="15"/>
+      <c r="C65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="45">
-      <c r="B21" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="2:9" ht="60">
-      <c r="B29" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="B33" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="B36" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="B42" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="B43" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30">
-      <c r="B44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30">
-      <c r="B46" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="B48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="9" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="60">
-      <c r="B49" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>209</v>
       </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2488,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2502,13 +2801,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2516,7 +2815,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>170</v>
@@ -2527,7 +2826,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>171</v>
@@ -2538,7 +2837,7 @@
         <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2549,7 +2848,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2560,7 +2859,7 @@
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
@@ -2571,7 +2870,7 @@
         <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>174</v>
@@ -2582,10 +2881,10 @@
         <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2593,10 +2892,10 @@
         <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2604,7 +2903,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -2615,7 +2914,7 @@
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2626,7 +2925,7 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2637,7 +2936,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>177</v>
@@ -2648,7 +2947,7 @@
         <v>176</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>178</v>
@@ -2659,7 +2958,7 @@
         <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>179</v>
@@ -2670,7 +2969,7 @@
         <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
@@ -2681,7 +2980,7 @@
         <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>181</v>
@@ -2692,7 +2991,7 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>182</v>
@@ -2703,7 +3002,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>183</v>
@@ -2714,7 +3013,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>184</v>
@@ -2725,7 +3024,7 @@
         <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>185</v>
@@ -2736,7 +3035,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -2747,7 +3046,7 @@
         <v>176</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -2758,7 +3057,7 @@
         <v>194</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>186</v>
@@ -2769,7 +3068,7 @@
         <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>187</v>
@@ -2780,7 +3079,7 @@
         <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>188</v>
@@ -2791,7 +3090,7 @@
         <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>189</v>
@@ -2802,7 +3101,7 @@
         <v>194</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>190</v>
@@ -2813,7 +3112,7 @@
         <v>194</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>191</v>
@@ -2824,7 +3123,7 @@
         <v>194</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>192</v>
@@ -2835,7 +3134,7 @@
         <v>194</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -2846,7 +3145,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>193</v>
@@ -2857,7 +3156,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -2868,7 +3167,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -2879,7 +3178,7 @@
         <v>197</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>198</v>
@@ -2890,7 +3189,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>199</v>
@@ -2901,7 +3200,7 @@
         <v>197</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
@@ -2912,7 +3211,7 @@
         <v>197</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>201</v>
@@ -2923,7 +3222,7 @@
         <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -2934,7 +3233,7 @@
         <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -2945,7 +3244,7 @@
         <v>207</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -2956,7 +3255,7 @@
         <v>207</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -2967,7 +3266,7 @@
         <v>207</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>208</v>
@@ -2978,7 +3277,7 @@
         <v>207</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -2989,7 +3288,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
@@ -3000,7 +3299,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -3011,7 +3310,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
@@ -3022,7 +3321,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -3033,7 +3332,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -3044,7 +3343,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -3055,7 +3354,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3066,7 +3365,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -3077,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -3088,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>35</v>
@@ -3099,7 +3398,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -3110,7 +3409,7 @@
         <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>36</v>
@@ -3121,7 +3420,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -3132,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -3143,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -3154,7 +3453,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -3165,7 +3464,7 @@
         <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -3176,7 +3475,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
@@ -3187,7 +3486,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -3198,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>22</v>
@@ -3209,7 +3508,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -3220,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
@@ -3231,7 +3530,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>44</v>
@@ -3242,7 +3541,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -3253,7 +3552,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -3264,7 +3563,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -3275,7 +3574,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -3286,7 +3585,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -3297,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3308,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -3319,7 +3618,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>47</v>
@@ -3330,7 +3629,7 @@
         <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>48</v>
@@ -3341,7 +3640,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>36</v>
@@ -3352,7 +3651,7 @@
         <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -3363,7 +3662,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>51</v>
@@ -3374,7 +3673,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>52</v>
@@ -3385,7 +3684,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>53</v>
@@ -3396,7 +3695,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>36</v>
@@ -3407,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>22</v>
@@ -3418,7 +3717,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>55</v>
@@ -3429,7 +3728,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>56</v>
@@ -3440,7 +3739,7 @@
         <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>57</v>
@@ -3451,7 +3750,7 @@
         <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
@@ -3462,7 +3761,7 @@
         <v>54</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -3473,7 +3772,7 @@
         <v>54</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3484,7 +3783,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>59</v>
@@ -3495,7 +3794,7 @@
         <v>58</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>60</v>
@@ -3506,10 +3805,10 @@
         <v>58</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3517,7 +3816,7 @@
         <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>36</v>
@@ -3528,7 +3827,7 @@
         <v>58</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
@@ -3539,7 +3838,7 @@
         <v>61</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>62</v>
@@ -3550,7 +3849,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>63</v>
@@ -3561,7 +3860,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>64</v>
@@ -3572,7 +3871,7 @@
         <v>61</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>65</v>
@@ -3583,7 +3882,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>66</v>
@@ -3594,7 +3893,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
@@ -3605,7 +3904,7 @@
         <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -3616,7 +3915,7 @@
         <v>61</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>68</v>
@@ -3627,7 +3926,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>62</v>
@@ -3638,7 +3937,7 @@
         <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>63</v>
@@ -3649,7 +3948,7 @@
         <v>69</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>64</v>
@@ -3660,7 +3959,7 @@
         <v>69</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>65</v>
@@ -3671,7 +3970,7 @@
         <v>69</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>66</v>
@@ -3682,7 +3981,7 @@
         <v>69</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
@@ -3693,7 +3992,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
@@ -3704,7 +4003,7 @@
         <v>69</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>70</v>
@@ -3715,7 +4014,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>68</v>
@@ -3726,7 +4025,7 @@
         <v>71</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -3737,7 +4036,7 @@
         <v>71</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -3748,7 +4047,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>72</v>
@@ -3759,7 +4058,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>36</v>
@@ -3770,7 +4069,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>22</v>
@@ -3803,7 +4102,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>74</v>
@@ -3814,7 +4113,7 @@
         <v>73</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>36</v>
@@ -3825,7 +4124,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
@@ -3836,7 +4135,7 @@
         <v>75</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>76</v>
@@ -3847,7 +4146,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>77</v>
@@ -3858,7 +4157,7 @@
         <v>75</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>78</v>
@@ -3869,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -3880,7 +4179,7 @@
         <v>75</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
@@ -3891,7 +4190,7 @@
         <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3902,7 +4201,7 @@
         <v>79</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3913,7 +4212,7 @@
         <v>79</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3924,7 +4223,7 @@
         <v>79</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>83</v>
@@ -3935,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>84</v>
@@ -3946,7 +4245,7 @@
         <v>79</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>21</v>
@@ -3957,7 +4256,7 @@
         <v>79</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -3968,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>85</v>
@@ -3979,7 +4278,7 @@
         <v>100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>86</v>
@@ -3990,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>87</v>
@@ -4001,7 +4300,7 @@
         <v>100</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>88</v>
@@ -4012,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>89</v>
@@ -4023,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>90</v>
@@ -4034,7 +4333,7 @@
         <v>100</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>91</v>
@@ -4045,7 +4344,7 @@
         <v>100</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>92</v>
@@ -4056,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>93</v>
@@ -4067,7 +4366,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
@@ -4078,7 +4377,7 @@
         <v>100</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>95</v>
@@ -4089,7 +4388,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>96</v>
@@ -4100,7 +4399,7 @@
         <v>100</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>97</v>
@@ -4111,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>98</v>
@@ -4122,7 +4421,7 @@
         <v>100</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>21</v>
@@ -4133,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>99</v>
@@ -4144,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -4155,7 +4454,7 @@
         <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>101</v>
@@ -4166,7 +4465,7 @@
         <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>102</v>
@@ -4177,7 +4476,7 @@
         <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>103</v>
@@ -4188,7 +4487,7 @@
         <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>104</v>
@@ -4199,7 +4498,7 @@
         <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>105</v>
@@ -4210,7 +4509,7 @@
         <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>106</v>
@@ -4221,7 +4520,7 @@
         <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>107</v>
@@ -4232,7 +4531,7 @@
         <v>115</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -4243,7 +4542,7 @@
         <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>109</v>
@@ -4254,7 +4553,7 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>110</v>
@@ -4265,7 +4564,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>111</v>
@@ -4276,7 +4575,7 @@
         <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>112</v>
@@ -4287,7 +4586,7 @@
         <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>113</v>
@@ -4298,7 +4597,7 @@
         <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>114</v>
@@ -4309,7 +4608,7 @@
         <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>21</v>
@@ -4320,7 +4619,7 @@
         <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -4331,7 +4630,7 @@
         <v>116</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>80</v>
@@ -4342,7 +4641,7 @@
         <v>116</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>81</v>
@@ -4353,7 +4652,7 @@
         <v>116</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>82</v>
@@ -4364,7 +4663,7 @@
         <v>116</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>83</v>
@@ -4375,7 +4674,7 @@
         <v>116</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>84</v>
@@ -4386,7 +4685,7 @@
         <v>116</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -4397,7 +4696,7 @@
         <v>116</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -4408,7 +4707,7 @@
         <v>119</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>117</v>
@@ -4419,7 +4718,7 @@
         <v>119</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -4430,7 +4729,7 @@
         <v>119</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -4441,7 +4740,7 @@
         <v>119</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>22</v>
@@ -4452,7 +4751,7 @@
         <v>123</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>120</v>
@@ -4463,7 +4762,7 @@
         <v>123</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -4474,7 +4773,7 @@
         <v>123</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>122</v>
@@ -4485,7 +4784,7 @@
         <v>123</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4496,7 +4795,7 @@
         <v>125</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>124</v>
@@ -4507,7 +4806,7 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>85</v>
@@ -4518,7 +4817,7 @@
         <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>86</v>
@@ -4529,7 +4828,7 @@
         <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>87</v>
@@ -4540,7 +4839,7 @@
         <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>88</v>
@@ -4551,7 +4850,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>89</v>
@@ -4562,7 +4861,7 @@
         <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>90</v>
@@ -4573,7 +4872,7 @@
         <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>91</v>
@@ -4584,7 +4883,7 @@
         <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>92</v>
@@ -4595,7 +4894,7 @@
         <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>93</v>
@@ -4606,7 +4905,7 @@
         <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>94</v>
@@ -4617,7 +4916,7 @@
         <v>125</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>95</v>
@@ -4628,7 +4927,7 @@
         <v>125</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>96</v>
@@ -4639,7 +4938,7 @@
         <v>125</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>97</v>
@@ -4650,7 +4949,7 @@
         <v>125</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
@@ -4661,7 +4960,7 @@
         <v>125</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -4672,7 +4971,7 @@
         <v>130</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>126</v>
@@ -4683,7 +4982,7 @@
         <v>130</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>127</v>
@@ -4694,7 +4993,7 @@
         <v>130</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>128</v>
@@ -4705,7 +5004,7 @@
         <v>130</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>129</v>
@@ -4716,7 +5015,7 @@
         <v>130</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>120</v>
@@ -4727,7 +5026,7 @@
         <v>130</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
@@ -4738,7 +5037,7 @@
         <v>136</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>131</v>
@@ -4749,7 +5048,7 @@
         <v>136</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>132</v>
@@ -4760,7 +5059,7 @@
         <v>136</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>133</v>
@@ -4771,7 +5070,7 @@
         <v>136</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>134</v>
@@ -4782,7 +5081,7 @@
         <v>136</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>135</v>
@@ -4793,7 +5092,7 @@
         <v>136</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>21</v>
@@ -4804,7 +5103,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -4815,7 +5114,7 @@
         <v>136</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>22</v>
@@ -4826,7 +5125,7 @@
         <v>139</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>137</v>
@@ -4837,7 +5136,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>138</v>
@@ -4848,7 +5147,7 @@
         <v>139</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -4859,7 +5158,7 @@
         <v>141</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>20</v>
@@ -4870,7 +5169,7 @@
         <v>141</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>19</v>
@@ -4881,7 +5180,7 @@
         <v>141</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>140</v>
@@ -4892,7 +5191,7 @@
         <v>141</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
@@ -4903,7 +5202,7 @@
         <v>145</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>142</v>
@@ -4914,7 +5213,7 @@
         <v>145</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>143</v>
@@ -4925,7 +5224,7 @@
         <v>145</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>144</v>
@@ -4936,7 +5235,7 @@
         <v>145</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>16</v>
@@ -4947,7 +5246,7 @@
         <v>145</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
@@ -4958,7 +5257,7 @@
         <v>145</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>22</v>
@@ -4969,7 +5268,7 @@
         <v>146</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>147</v>
@@ -4980,7 +5279,7 @@
         <v>146</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>148</v>
@@ -4991,7 +5290,7 @@
         <v>146</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>149</v>
@@ -5002,7 +5301,7 @@
         <v>146</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>150</v>
@@ -5013,7 +5312,7 @@
         <v>146</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>21</v>
@@ -5024,7 +5323,7 @@
         <v>146</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -5035,7 +5334,7 @@
         <v>155</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>151</v>
@@ -5046,7 +5345,7 @@
         <v>155</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>152</v>
@@ -5057,7 +5356,7 @@
         <v>155</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>153</v>
@@ -5068,7 +5367,7 @@
         <v>155</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>154</v>
@@ -5079,7 +5378,7 @@
         <v>155</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>21</v>
@@ -5090,7 +5389,7 @@
         <v>155</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -5101,7 +5400,7 @@
         <v>155</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>22</v>
@@ -5112,7 +5411,7 @@
         <v>158</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>147</v>
@@ -5123,7 +5422,7 @@
         <v>158</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>156</v>
@@ -5134,7 +5433,7 @@
         <v>158</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>157</v>
@@ -5145,7 +5444,7 @@
         <v>158</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -5156,7 +5455,7 @@
         <v>158</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>22</v>
@@ -5167,7 +5466,7 @@
         <v>159</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>29</v>
@@ -5178,7 +5477,7 @@
         <v>159</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>30</v>
@@ -5189,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>19</v>
@@ -5200,7 +5499,7 @@
         <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>20</v>
@@ -5211,7 +5510,7 @@
         <v>161</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>29</v>
@@ -5222,7 +5521,7 @@
         <v>161</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>30</v>
@@ -5233,7 +5532,7 @@
         <v>161</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>160</v>
@@ -5244,7 +5543,7 @@
         <v>162</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
@@ -5255,7 +5554,7 @@
         <v>162</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
@@ -5266,7 +5565,7 @@
         <v>162</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>163</v>
@@ -5277,7 +5576,7 @@
         <v>210</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>211</v>
@@ -5285,21 +5584,21 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
@@ -5333,26 +5632,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5360,18 +5659,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +5687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5410,7 +5709,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5418,15 +5717,15 @@
         <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5434,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5442,7 +5741,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5458,39 +5757,39 @@
         <v>11</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5498,15 +5797,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5514,31 +5813,31 @@
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5546,23 +5845,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5570,23 +5869,23 @@
         <v>10</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5594,31 +5893,31 @@
         <v>9</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5626,95 +5925,95 @@
         <v>10</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5722,23 +6021,23 @@
         <v>9</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5746,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5754,39 +6053,39 @@
         <v>9</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5794,15 +6093,15 @@
         <v>10</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5810,23 +6109,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5834,15 +6133,15 @@
         <v>9</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5850,15 +6149,15 @@
         <v>9</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5866,7 +6165,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5874,7 +6173,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5882,31 +6181,31 @@
         <v>10</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5914,7 +6213,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/client6Week/client6Week.xlsx
+++ b/app/config/tables/femaleClients/forms/client6Week/client6Week.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16364" yWindow="5878" windowWidth="29219" windowHeight="18340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="16364" yWindow="5878" windowWidth="29219" windowHeight="18340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="372">
   <si>
     <t>type</t>
   </si>
@@ -787,9 +787,6 @@
   </si>
   <si>
     <t>values_list</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>interviewer_id</t>
@@ -1864,10 +1861,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1879,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1906,7 +1903,7 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>249</v>
@@ -1924,7 +1921,7 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -1950,7 +1947,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>244</v>
@@ -1969,7 +1966,7 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>237</v>
@@ -1982,7 +1979,7 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>206</v>
@@ -1991,13 +1988,13 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>207</v>
@@ -2005,10 +2002,10 @@
     </row>
     <row r="9" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="14"/>
@@ -2020,7 +2017,7 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>245</v>
@@ -2029,13 +2026,13 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>208</v>
@@ -2043,10 +2040,10 @@
     </row>
     <row r="12" spans="1:12" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="14"/>
@@ -2058,7 +2055,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>246</v>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="7"/>
@@ -2074,7 +2071,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="7"/>
@@ -2087,7 +2084,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>162</v>
@@ -2096,13 +2093,13 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>166</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>209</v>
@@ -2110,10 +2107,10 @@
     </row>
     <row r="18" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="14"/>
@@ -2125,7 +2122,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>210</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="7"/>
@@ -2142,13 +2139,13 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>188</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>217</v>
@@ -2156,10 +2153,10 @@
     </row>
     <row r="22" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="14"/>
@@ -2171,7 +2168,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>189</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
@@ -2188,13 +2185,13 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>211</v>
@@ -2203,13 +2200,13 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>212</v>
@@ -2218,13 +2215,13 @@
     <row r="27" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>191</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>213</v>
@@ -2235,10 +2232,10 @@
     </row>
     <row r="28" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="14"/>
@@ -2250,7 +2247,7 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>196</v>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="7"/>
@@ -2271,7 +2268,7 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>197</v>
@@ -2281,13 +2278,13 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>214</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="33" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="14"/>
@@ -2306,13 +2303,13 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>215</v>
@@ -2325,10 +2322,10 @@
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>218</v>
@@ -2336,7 +2333,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
@@ -2349,7 +2346,7 @@
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>198</v>
@@ -2359,13 +2356,13 @@
     <row r="38" spans="1:9" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>219</v>
@@ -2376,10 +2373,10 @@
     </row>
     <row r="39" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="14"/>
@@ -2387,13 +2384,13 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>221</v>
@@ -2401,10 +2398,10 @@
     </row>
     <row r="41" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="14"/>
@@ -2416,7 +2413,7 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>220</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -2433,13 +2430,13 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="15"/>
       <c r="C44" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>222</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -2456,13 +2453,13 @@
     <row r="46" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
       <c r="C46" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>223</v>
@@ -2471,13 +2468,13 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>38</v>
@@ -2490,7 +2487,7 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>224</v>
@@ -2502,13 +2499,13 @@
     <row r="49" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B49" s="15"/>
       <c r="C49" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>225</v>
@@ -2517,13 +2514,13 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
       <c r="C50" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>226</v>
@@ -2532,13 +2529,13 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
       <c r="C51" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>227</v>
@@ -2546,10 +2543,10 @@
     </row>
     <row r="52" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="3"/>
@@ -2557,13 +2554,13 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B53" s="15"/>
       <c r="C53" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>228</v>
@@ -2572,13 +2569,13 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" s="15"/>
       <c r="C54" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>229</v>
@@ -2586,7 +2583,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
@@ -2595,13 +2592,13 @@
     <row r="56" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
       <c r="C56" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>230</v>
@@ -2613,13 +2610,13 @@
     <row r="57" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B57" s="15"/>
       <c r="C57" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>231</v>
@@ -2628,13 +2625,13 @@
     <row r="58" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>232</v>
@@ -2643,13 +2640,13 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>233</v>
@@ -2657,10 +2654,10 @@
     </row>
     <row r="60" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="3"/>
@@ -2668,13 +2665,13 @@
     <row r="61" spans="1:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B61" s="15"/>
       <c r="C61" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>234</v>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="7"/>
@@ -2695,7 +2692,7 @@
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>248</v>
@@ -2704,13 +2701,13 @@
     <row r="64" spans="1:9" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B64" s="15"/>
       <c r="C64" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>241</v>
@@ -2724,7 +2721,7 @@
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>203</v>
@@ -2754,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2768,13 +2765,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2782,7 +2779,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>164</v>
@@ -2793,7 +2790,7 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>165</v>
@@ -2804,7 +2801,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -2815,7 +2812,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -2826,7 +2823,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>167</v>
@@ -2837,7 +2834,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>168</v>
@@ -2848,7 +2845,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>247</v>
@@ -2859,7 +2856,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>216</v>
@@ -2870,7 +2867,7 @@
         <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>169</v>
@@ -2881,7 +2878,7 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2892,7 +2889,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -2903,7 +2900,7 @@
         <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>171</v>
@@ -2914,7 +2911,7 @@
         <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>172</v>
@@ -2925,7 +2922,7 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>173</v>
@@ -2936,7 +2933,7 @@
         <v>170</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>174</v>
@@ -2947,7 +2944,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>175</v>
@@ -2958,7 +2955,7 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>176</v>
@@ -2969,7 +2966,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>177</v>
@@ -2980,7 +2977,7 @@
         <v>170</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>178</v>
@@ -2991,7 +2988,7 @@
         <v>170</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>179</v>
@@ -3002,7 +2999,7 @@
         <v>170</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
@@ -3013,7 +3010,7 @@
         <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -3024,7 +3021,7 @@
         <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>180</v>
@@ -3035,7 +3032,7 @@
         <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>181</v>
@@ -3046,7 +3043,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>182</v>
@@ -3057,7 +3054,7 @@
         <v>188</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>183</v>
@@ -3068,7 +3065,7 @@
         <v>188</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>184</v>
@@ -3079,7 +3076,7 @@
         <v>188</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>185</v>
@@ -3090,7 +3087,7 @@
         <v>188</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>186</v>
@@ -3101,7 +3098,7 @@
         <v>188</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>19</v>
@@ -3112,7 +3109,7 @@
         <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>187</v>
@@ -3123,7 +3120,7 @@
         <v>188</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>21</v>
@@ -3134,7 +3131,7 @@
         <v>191</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>122</v>
@@ -3145,7 +3142,7 @@
         <v>191</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>192</v>
@@ -3156,7 +3153,7 @@
         <v>191</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>193</v>
@@ -3167,7 +3164,7 @@
         <v>191</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>194</v>
@@ -3178,7 +3175,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>195</v>
@@ -3189,7 +3186,7 @@
         <v>191</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>19</v>
@@ -3200,7 +3197,7 @@
         <v>191</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>21</v>
@@ -3211,7 +3208,7 @@
         <v>201</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
@@ -3222,7 +3219,7 @@
         <v>201</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -3233,7 +3230,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>202</v>
@@ -3244,7 +3241,7 @@
         <v>201</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -3255,7 +3252,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -3266,7 +3263,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3277,7 +3274,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -3288,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>26</v>
@@ -3299,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
@@ -3310,7 +3307,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -3321,7 +3318,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>30</v>
@@ -3332,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>31</v>
@@ -3343,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3354,7 +3351,7 @@
         <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>33</v>
@@ -3365,7 +3362,7 @@
         <v>36</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>35</v>
@@ -3376,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>34</v>
@@ -3387,7 +3384,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
@@ -3398,7 +3395,7 @@
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
@@ -3409,7 +3406,7 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>34</v>
@@ -3420,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
@@ -3431,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>40</v>
@@ -3442,7 +3439,7 @@
         <v>39</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>41</v>
@@ -3453,7 +3450,7 @@
         <v>39</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>21</v>
@@ -3464,7 +3461,7 @@
         <v>39</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>20</v>
@@ -3475,7 +3472,7 @@
         <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
@@ -3486,7 +3483,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
@@ -3497,7 +3494,7 @@
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>42</v>
@@ -3508,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>20</v>
@@ -3519,7 +3516,7 @@
         <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
@@ -3530,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -3541,7 +3538,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>34</v>
@@ -3552,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>20</v>
@@ -3563,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
@@ -3574,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
@@ -3585,7 +3582,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>45</v>
@@ -3596,7 +3593,7 @@
         <v>47</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>46</v>
@@ -3607,7 +3604,7 @@
         <v>47</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>34</v>
@@ -3618,7 +3615,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>20</v>
@@ -3629,7 +3626,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>49</v>
@@ -3640,7 +3637,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>50</v>
@@ -3651,7 +3648,7 @@
         <v>48</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>51</v>
@@ -3662,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>34</v>
@@ -3673,7 +3670,7 @@
         <v>48</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
@@ -3684,7 +3681,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>53</v>
@@ -3695,7 +3692,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>54</v>
@@ -3706,7 +3703,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>55</v>
@@ -3717,7 +3714,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>19</v>
@@ -3728,7 +3725,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -3739,7 +3736,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>20</v>
@@ -3750,7 +3747,7 @@
         <v>56</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>57</v>
@@ -3761,7 +3758,7 @@
         <v>56</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>58</v>
@@ -3772,7 +3769,7 @@
         <v>56</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>236</v>
@@ -3783,7 +3780,7 @@
         <v>56</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
@@ -3794,7 +3791,7 @@
         <v>56</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>20</v>
@@ -3805,7 +3802,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>60</v>
@@ -3816,7 +3813,7 @@
         <v>59</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>61</v>
@@ -3827,7 +3824,7 @@
         <v>59</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>62</v>
@@ -3838,7 +3835,7 @@
         <v>59</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>63</v>
@@ -3849,7 +3846,7 @@
         <v>59</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>64</v>
@@ -3860,7 +3857,7 @@
         <v>59</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>65</v>
@@ -3871,7 +3868,7 @@
         <v>59</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
@@ -3882,7 +3879,7 @@
         <v>59</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>66</v>
@@ -3893,7 +3890,7 @@
         <v>67</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>60</v>
@@ -3904,7 +3901,7 @@
         <v>67</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>61</v>
@@ -3915,7 +3912,7 @@
         <v>67</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>62</v>
@@ -3926,7 +3923,7 @@
         <v>67</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>63</v>
@@ -3937,7 +3934,7 @@
         <v>67</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>64</v>
@@ -3948,7 +3945,7 @@
         <v>67</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>65</v>
@@ -3959,7 +3956,7 @@
         <v>67</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -3970,7 +3967,7 @@
         <v>67</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>68</v>
@@ -3981,7 +3978,7 @@
         <v>67</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>66</v>
@@ -3992,7 +3989,7 @@
         <v>69</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
@@ -4003,7 +4000,7 @@
         <v>69</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
@@ -4014,7 +4011,7 @@
         <v>69</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>70</v>
@@ -4025,7 +4022,7 @@
         <v>69</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>34</v>
@@ -4036,7 +4033,7 @@
         <v>69</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>20</v>
@@ -4069,7 +4066,7 @@
         <v>71</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>72</v>
@@ -4080,7 +4077,7 @@
         <v>71</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>34</v>
@@ -4091,7 +4088,7 @@
         <v>71</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>20</v>
@@ -4102,7 +4099,7 @@
         <v>73</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>74</v>
@@ -4113,7 +4110,7 @@
         <v>73</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>75</v>
@@ -4124,7 +4121,7 @@
         <v>73</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>76</v>
@@ -4135,7 +4132,7 @@
         <v>73</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>21</v>
@@ -4146,7 +4143,7 @@
         <v>73</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>20</v>
@@ -4157,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>78</v>
@@ -4168,7 +4165,7 @@
         <v>77</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>79</v>
@@ -4179,7 +4176,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>80</v>
@@ -4190,7 +4187,7 @@
         <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>81</v>
@@ -4201,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>82</v>
@@ -4212,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>19</v>
@@ -4223,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>21</v>
@@ -4234,7 +4231,7 @@
         <v>98</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>83</v>
@@ -4245,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>84</v>
@@ -4256,7 +4253,7 @@
         <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>85</v>
@@ -4267,7 +4264,7 @@
         <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>86</v>
@@ -4278,7 +4275,7 @@
         <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>87</v>
@@ -4289,7 +4286,7 @@
         <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>88</v>
@@ -4300,7 +4297,7 @@
         <v>98</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>89</v>
@@ -4311,7 +4308,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>90</v>
@@ -4322,7 +4319,7 @@
         <v>98</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>91</v>
@@ -4333,7 +4330,7 @@
         <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>92</v>
@@ -4344,7 +4341,7 @@
         <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>93</v>
@@ -4355,7 +4352,7 @@
         <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
@@ -4366,7 +4363,7 @@
         <v>98</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>95</v>
@@ -4377,7 +4374,7 @@
         <v>98</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>96</v>
@@ -4388,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>19</v>
@@ -4399,7 +4396,7 @@
         <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>97</v>
@@ -4410,7 +4407,7 @@
         <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>21</v>
@@ -4421,7 +4418,7 @@
         <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>99</v>
@@ -4432,7 +4429,7 @@
         <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>100</v>
@@ -4443,7 +4440,7 @@
         <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>101</v>
@@ -4454,7 +4451,7 @@
         <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>102</v>
@@ -4465,7 +4462,7 @@
         <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>103</v>
@@ -4476,7 +4473,7 @@
         <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>104</v>
@@ -4487,7 +4484,7 @@
         <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>105</v>
@@ -4498,7 +4495,7 @@
         <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>106</v>
@@ -4509,7 +4506,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>107</v>
@@ -4520,7 +4517,7 @@
         <v>113</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>108</v>
@@ -4531,7 +4528,7 @@
         <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>109</v>
@@ -4542,7 +4539,7 @@
         <v>113</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>110</v>
@@ -4553,7 +4550,7 @@
         <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>111</v>
@@ -4564,7 +4561,7 @@
         <v>113</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>112</v>
@@ -4575,7 +4572,7 @@
         <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>19</v>
@@ -4586,7 +4583,7 @@
         <v>113</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>21</v>
@@ -4597,7 +4594,7 @@
         <v>114</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>78</v>
@@ -4608,7 +4605,7 @@
         <v>114</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>79</v>
@@ -4619,7 +4616,7 @@
         <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>80</v>
@@ -4630,7 +4627,7 @@
         <v>114</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>81</v>
@@ -4641,7 +4638,7 @@
         <v>114</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>82</v>
@@ -4652,7 +4649,7 @@
         <v>114</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>19</v>
@@ -4663,7 +4660,7 @@
         <v>114</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>21</v>
@@ -4674,7 +4671,7 @@
         <v>117</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>115</v>
@@ -4685,7 +4682,7 @@
         <v>117</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>116</v>
@@ -4696,7 +4693,7 @@
         <v>117</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>21</v>
@@ -4707,7 +4704,7 @@
         <v>117</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>20</v>
@@ -4718,7 +4715,7 @@
         <v>121</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>118</v>
@@ -4729,7 +4726,7 @@
         <v>121</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>119</v>
@@ -4740,7 +4737,7 @@
         <v>121</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>120</v>
@@ -4751,7 +4748,7 @@
         <v>121</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>21</v>
@@ -4762,7 +4759,7 @@
         <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>122</v>
@@ -4773,7 +4770,7 @@
         <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>83</v>
@@ -4784,7 +4781,7 @@
         <v>123</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>84</v>
@@ -4795,7 +4792,7 @@
         <v>123</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>85</v>
@@ -4806,7 +4803,7 @@
         <v>123</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>86</v>
@@ -4817,7 +4814,7 @@
         <v>123</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>87</v>
@@ -4828,7 +4825,7 @@
         <v>123</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>88</v>
@@ -4839,7 +4836,7 @@
         <v>123</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>89</v>
@@ -4850,7 +4847,7 @@
         <v>123</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>90</v>
@@ -4861,7 +4858,7 @@
         <v>123</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>91</v>
@@ -4872,7 +4869,7 @@
         <v>123</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>92</v>
@@ -4883,7 +4880,7 @@
         <v>123</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>93</v>
@@ -4894,7 +4891,7 @@
         <v>123</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>94</v>
@@ -4905,7 +4902,7 @@
         <v>123</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>95</v>
@@ -4916,7 +4913,7 @@
         <v>123</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>19</v>
@@ -4927,7 +4924,7 @@
         <v>123</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>21</v>
@@ -4938,7 +4935,7 @@
         <v>128</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>124</v>
@@ -4949,7 +4946,7 @@
         <v>128</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>125</v>
@@ -4960,7 +4957,7 @@
         <v>128</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>126</v>
@@ -4971,7 +4968,7 @@
         <v>128</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>127</v>
@@ -4982,7 +4979,7 @@
         <v>128</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>118</v>
@@ -4993,7 +4990,7 @@
         <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>21</v>
@@ -5004,7 +5001,7 @@
         <v>134</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>129</v>
@@ -5015,7 +5012,7 @@
         <v>134</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>130</v>
@@ -5026,7 +5023,7 @@
         <v>134</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>131</v>
@@ -5037,7 +5034,7 @@
         <v>134</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>132</v>
@@ -5048,7 +5045,7 @@
         <v>134</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>133</v>
@@ -5059,7 +5056,7 @@
         <v>134</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>19</v>
@@ -5070,7 +5067,7 @@
         <v>134</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>21</v>
@@ -5081,7 +5078,7 @@
         <v>134</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>20</v>
@@ -5092,7 +5089,7 @@
         <v>137</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>135</v>
@@ -5103,7 +5100,7 @@
         <v>137</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>136</v>
@@ -5114,7 +5111,7 @@
         <v>137</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>21</v>
@@ -5125,7 +5122,7 @@
         <v>139</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>18</v>
@@ -5136,7 +5133,7 @@
         <v>139</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>17</v>
@@ -5147,7 +5144,7 @@
         <v>139</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>138</v>
@@ -5158,7 +5155,7 @@
         <v>139</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>21</v>
@@ -5169,7 +5166,7 @@
         <v>143</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>140</v>
@@ -5180,7 +5177,7 @@
         <v>143</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>141</v>
@@ -5191,7 +5188,7 @@
         <v>143</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>142</v>
@@ -5202,7 +5199,7 @@
         <v>143</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>14</v>
@@ -5213,7 +5210,7 @@
         <v>143</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>21</v>
@@ -5224,7 +5221,7 @@
         <v>143</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>20</v>
@@ -5235,7 +5232,7 @@
         <v>144</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>145</v>
@@ -5246,7 +5243,7 @@
         <v>144</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>146</v>
@@ -5257,7 +5254,7 @@
         <v>144</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>147</v>
@@ -5268,7 +5265,7 @@
         <v>144</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>148</v>
@@ -5279,7 +5276,7 @@
         <v>144</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>19</v>
@@ -5290,7 +5287,7 @@
         <v>144</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>21</v>
@@ -5301,7 +5298,7 @@
         <v>153</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>149</v>
@@ -5312,7 +5309,7 @@
         <v>153</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>150</v>
@@ -5323,7 +5320,7 @@
         <v>153</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>151</v>
@@ -5334,7 +5331,7 @@
         <v>153</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>152</v>
@@ -5345,7 +5342,7 @@
         <v>153</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>19</v>
@@ -5356,7 +5353,7 @@
         <v>153</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>21</v>
@@ -5367,7 +5364,7 @@
         <v>153</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>20</v>
@@ -5378,7 +5375,7 @@
         <v>156</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>145</v>
@@ -5389,7 +5386,7 @@
         <v>156</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>154</v>
@@ -5400,7 +5397,7 @@
         <v>156</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>155</v>
@@ -5411,7 +5408,7 @@
         <v>156</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>21</v>
@@ -5422,7 +5419,7 @@
         <v>156</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>20</v>
@@ -5433,7 +5430,7 @@
         <v>157</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>27</v>
@@ -5444,7 +5441,7 @@
         <v>157</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>28</v>
@@ -5455,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>17</v>
@@ -5466,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>18</v>
@@ -5477,7 +5474,7 @@
         <v>159</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>27</v>
@@ -5488,7 +5485,7 @@
         <v>159</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>28</v>
@@ -5499,7 +5496,7 @@
         <v>159</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>158</v>
@@ -5510,7 +5507,7 @@
         <v>160</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>13</v>
@@ -5521,7 +5518,7 @@
         <v>160</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>14</v>
@@ -5532,7 +5529,7 @@
         <v>160</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>161</v>
@@ -5543,7 +5540,7 @@
         <v>204</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>205</v>
@@ -5554,7 +5551,7 @@
         <v>238</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>239</v>
@@ -5565,7 +5562,7 @@
         <v>238</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>21</v>
@@ -5586,7 +5583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5599,13 +5596,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" t="s">
-        <v>300</v>
-      </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5618,7 +5615,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5626,18 +5623,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
         <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5684,15 +5681,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5700,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5708,7 +5705,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5724,15 +5721,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5740,15 +5737,15 @@
         <v>240</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5756,7 +5753,7 @@
         <v>240</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5764,15 +5761,15 @@
         <v>7</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5780,31 +5777,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5812,23 +5809,23 @@
         <v>7</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5836,23 +5833,23 @@
         <v>8</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5860,31 +5857,31 @@
         <v>7</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5892,95 +5889,95 @@
         <v>8</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5988,23 +5985,23 @@
         <v>7</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6012,7 +6009,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6020,39 +6017,39 @@
         <v>7</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6060,15 +6057,15 @@
         <v>8</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6076,23 +6073,23 @@
         <v>7</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6100,15 +6097,15 @@
         <v>7</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6116,15 +6113,15 @@
         <v>7</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6132,7 +6129,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6140,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6148,31 +6145,31 @@
         <v>8</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6180,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
